--- a/output/cart_results.xlsx
+++ b/output/cart_results.xlsx
@@ -44,7 +44,7 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>screens/step1_20251124_150843.png</t>
+    <t>screens/test1_/step1_20251125_213222.png</t>
   </si>
   <si>
     <t>נינג’ה גריל NINJA MAX PRO דגם AG653</t>
@@ -59,7 +59,7 @@
     <t>2.302</t>
   </si>
   <si>
-    <t>screens/step2_20251124_150927.png</t>
+    <t>screens/test1_/step2_20251125_213305.png</t>
   </si>
   <si>
     <t>תנור בנוי 71 ליטר דגם SIEMENS HB734G1B1 סימנס שחור עם נירוסטה</t>
@@ -68,7 +68,7 @@
     <t>5.65</t>
   </si>
   <si>
-    <t>screens/step3_20251124_151005.png</t>
+    <t>screens/test1_/step3_20251125_213343.png</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,7 @@
     <col min="3" max="3" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.3984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.59375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="35.31640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="41.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/cart_results.xlsx
+++ b/output/cart_results.xlsx
@@ -32,10 +32,10 @@
     <t>Screenshot</t>
   </si>
   <si>
-    <t>מקרן קול Bose Solo Soundbar 2</t>
-  </si>
-  <si>
-    <t>599.0</t>
+    <t>מסך "60 JVC LT-60N7165 4K Android 15</t>
+  </si>
+  <si>
+    <t>990.0</t>
   </si>
   <si>
     <t>1</t>
@@ -44,31 +44,31 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>screens/test1_/step1_20251125_213222.png</t>
+    <t>screens/test1_/step1_20251204_134120.png</t>
   </si>
   <si>
     <t>נינג’ה גריל NINJA MAX PRO דגם AG653</t>
   </si>
   <si>
-    <t>1.151</t>
+    <t>1.149</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>2.302</t>
-  </si>
-  <si>
-    <t>screens/test1_/step2_20251125_213305.png</t>
-  </si>
-  <si>
-    <t>תנור בנוי 71 ליטר דגם SIEMENS HB734G1B1 סימנס שחור עם נירוסטה</t>
-  </si>
-  <si>
-    <t>5.65</t>
-  </si>
-  <si>
-    <t>screens/test1_/step3_20251125_213343.png</t>
+    <t>2.298</t>
+  </si>
+  <si>
+    <t>screens/test1_/step2_20251204_134158.png</t>
+  </si>
+  <si>
+    <t>כיריים אינדוקציה דומינו 30 ס"מ דגם GORENJE GI3201BC גורניה שחור</t>
+  </si>
+  <si>
+    <t>3.49</t>
+  </si>
+  <si>
+    <t>screens/test1_/step3_20251204_134214.png</t>
   </si>
 </sst>
 </file>
@@ -119,7 +119,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.80859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.28125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.3984375" customWidth="true" bestFit="true"/>

--- a/output/cart_results.xlsx
+++ b/output/cart_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>ProductName</t>
   </si>
@@ -32,10 +32,10 @@
     <t>Screenshot</t>
   </si>
   <si>
-    <t>מסך "60 JVC LT-60N7165 4K Android 15</t>
-  </si>
-  <si>
-    <t>990.0</t>
+    <t>מסך "32 JVC LT-32N3160 HD Ready</t>
+  </si>
+  <si>
+    <t>299.0</t>
   </si>
   <si>
     <t>1</t>
@@ -44,31 +44,31 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>screens/test1_/step1_20251204_134120.png</t>
-  </si>
-  <si>
     <t>נינג’ה גריל NINJA MAX PRO דגם AG653</t>
   </si>
   <si>
-    <t>1.149</t>
+    <t>1149.0</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>2.298</t>
-  </si>
-  <si>
-    <t>screens/test1_/step2_20251204_134158.png</t>
+    <t>2298.0</t>
   </si>
   <si>
     <t>כיריים אינדוקציה דומינו 30 ס"מ דגם GORENJE GI3201BC גורניה שחור</t>
   </si>
   <si>
-    <t>3.49</t>
-  </si>
-  <si>
-    <t>screens/test1_/step3_20251204_134214.png</t>
+    <t>3490.0</t>
+  </si>
+  <si>
+    <t>ExpectedTotal</t>
+  </si>
+  <si>
+    <t>ActualTotal</t>
+  </si>
+  <si>
+    <t>FinalStatus</t>
   </si>
 </sst>
 </file>
@@ -113,18 +113,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="57.80859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.28125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.21875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.82421875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.3984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.59375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="41.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -163,48 +163,61 @@
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>10</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="E3" t="s" s="0">
         <v>9</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s" s="0">
+      <c r="C6" t="s" s="0">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6087.0</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>6087.0</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/output/cart_results.xlsx
+++ b/output/cart_results.xlsx
@@ -6,32 +6,30 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CartResults" r:id="rId3" sheetId="1"/>
+    <sheet name="Cart Results" r:id="rId3" sheetId="1"/>
+    <sheet name="Summary" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>UnitPrice</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
   </si>
   <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>RowPrice</t>
+    <t>Row Price</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Screenshot</t>
-  </si>
-  <si>
     <t>מסך "32 JVC LT-32N3160 HD Ready</t>
   </si>
   <si>
@@ -62,13 +60,13 @@
     <t>3490.0</t>
   </si>
   <si>
-    <t>ExpectedTotal</t>
-  </si>
-  <si>
-    <t>ActualTotal</t>
-  </si>
-  <si>
-    <t>FinalStatus</t>
+    <t>Expected Total</t>
+  </si>
+  <si>
+    <t>Actual Total</t>
+  </si>
+  <si>
+    <t>Final Status</t>
   </si>
 </sst>
 </file>
@@ -76,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -84,16 +82,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,123 +124,149 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="57.80859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.21875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.82421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.3984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.59375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.00390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.99609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.12109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.13671875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s" s="1">
         <v>4</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>8</v>
-      </c>
       <c r="D2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>9</v>
+      <c r="E3" t="s" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.55859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.0390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.62109375" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+      <c r="B1" t="s" s="1">
         <v>16</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C1" t="s" s="1">
         <v>17</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
         <v>6087.0</v>
       </c>
-      <c r="B7" t="n" s="0">
+      <c r="B2" t="n" s="0">
         <v>6087.0</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>9</v>
+      <c r="C2" t="s" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
